--- a/SMA_Data_2plus.xlsx
+++ b/SMA_Data_2plus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23910" windowHeight="9930"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="23910" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="313">
   <si>
     <t>Länge</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Decrypt</t>
   </si>
   <si>
-    <t>Daten ab hier</t>
-  </si>
-  <si>
     <t>Null, wenn kein Fehler, sonst FFFF</t>
   </si>
   <si>
@@ -953,6 +950,12 @@
   </si>
   <si>
     <t>MultigateDevices</t>
+  </si>
+  <si>
+    <t>Epoch Time Format</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -1639,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1697,7 +1700,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ref="B5:B19" si="0">SUBSTITUTE(MID(A5,11,30)," ","")</f>
@@ -1720,7 +1723,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1777,7 +1780,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1860,7 +1863,7 @@
         <v>38</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2118,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2788,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ref="B5:B19" si="0">SUBSTITUTE(MID(A5,11,30)," ","")</f>
@@ -2869,7 +2872,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2897,7 +2900,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2955,7 +2958,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3011,12 +3014,12 @@
         <v>66</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3045,7 +3048,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3099,7 +3102,7 @@
         <v>125</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3129,7 +3132,7 @@
         <v>890492130</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3186,7 +3189,7 @@
         <v>332</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3216,7 +3219,7 @@
         <v>1261019430</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3273,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3424,7 +3427,7 @@
         <v>0x00295A00</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3472,7 +3475,7 @@
         <v>1468915564</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3496,7 +3499,9 @@
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="D29" s="8">
@@ -3959,870 +3964,870 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>229</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -4859,307 +4864,307 @@
         <v>7</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="D5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="D7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="D8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="D9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="D10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="D11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="D12" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="D13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="D14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="D15" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="E19" s="4"/>
     </row>
